--- a/output/part2/January Anomaly return stat.xlsx
+++ b/output/part2/January Anomaly return stat.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002783281532262678</v>
+        <v>0.006484578797569223</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.002385507664108731</v>
+        <v>0.03093856703587041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003253171459205533</v>
+        <v>0.003840904393428555</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001599381863585649</v>
+        <v>-0.001082021250602335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004240988778941778</v>
+        <v>0.0564455677375075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001167774867597089</v>
+        <v>-0.005219364916059445</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07905281405922719</v>
+        <v>0.09060558454391665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09890640554030229</v>
+        <v>0.07467562150532828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07721054743614995</v>
+        <v>0.09264552351511005</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2725985064935827</v>
+        <v>-0.2725981621677369</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2527818575041938</v>
+        <v>-0.07540306076712414</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2725985064935827</v>
+        <v>-0.2725981621677369</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2635607029327003</v>
+        <v>0.1831729630031463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1750397577352165</v>
+        <v>0.08626619343559078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2635607029327003</v>
+        <v>0.1831729630031463</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2235907867535337</v>
+        <v>-0.22472032200178</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2365476081444504</v>
+        <v>-0.07213774639421161</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2177842887902638</v>
+        <v>-0.2295081060183757</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04517323036568817</v>
+        <v>-0.04653050137260466</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05242337682104744</v>
+        <v>0.006229798555688868</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04431656899122484</v>
+        <v>-0.04653050137260466</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001599381863585649</v>
+        <v>-0.001082021250602335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004240988778941778</v>
+        <v>0.0564455677375075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001167774867597089</v>
+        <v>-0.005219364916059445</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04097552059461568</v>
+        <v>0.06407761961137688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05623092531477202</v>
+        <v>0.08115433621768904</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04047472290660427</v>
+        <v>0.04916992511610608</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1923784070985093</v>
+        <v>0.1712392675336826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1722820615786224</v>
+        <v>0.0860617191468747</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1937155520997406</v>
+        <v>0.1724326370806289</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02247782507040794</v>
+        <v>-0.4836483592186444</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5933209248322316</v>
+        <v>-1.471285557254269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1377588063231713</v>
+        <v>-0.428488554931895</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.48265112472644</v>
+        <v>1.114388812859632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8348482108836186</v>
+        <v>1.80622143493866</v>
       </c>
       <c r="D13" t="n">
-        <v>1.562212944485343</v>
+        <v>1.120717434634192</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly return stat.xlsx
+++ b/output/part2/January Anomaly return stat.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006484578797569223</v>
+        <v>0.02941821170760588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03093856703587041</v>
+        <v>0.0532655052577863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003840904393428555</v>
+        <v>0.02684012591839718</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.001082021250602335</v>
+        <v>0.01958635919247287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0564455677375075</v>
+        <v>0.08049217546705711</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.005219364916059445</v>
+        <v>0.01674344409961871</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09060558454391665</v>
+        <v>0.08939261614507729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07467562150532828</v>
+        <v>0.07483149057506237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09264552351511005</v>
+        <v>0.09133601604823187</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2725981621677369</v>
+        <v>-0.2398693285444121</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07540306076712414</v>
+        <v>-0.05479579205284192</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2725981621677369</v>
+        <v>-0.2398693285444121</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1831729630031463</v>
+        <v>0.2037802317174287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08626619343559078</v>
+        <v>0.1068734621498729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1831729630031463</v>
+        <v>0.2037802317174287</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.22472032200178</v>
+        <v>-0.1947252471011491</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07213774639421161</v>
+        <v>-0.05132411733901336</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2295081060183757</v>
+        <v>-0.1992396552454754</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04653050137260466</v>
+        <v>-0.01904455462778767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006229798555688868</v>
+        <v>0.03199607579287215</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04653050137260466</v>
+        <v>-0.01904455462778767</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.001082021250602335</v>
+        <v>0.01958635919247287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0564455677375075</v>
+        <v>0.08049217546705711</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005219364916059445</v>
+        <v>0.01674344409961871</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06407761961137688</v>
+        <v>0.09156356635619395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08115433621768904</v>
+        <v>0.1017616049319713</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04916992511610608</v>
+        <v>0.06977719383038834</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1712392675336826</v>
+        <v>0.1890304317482437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0860617191468747</v>
+        <v>0.1066689878611568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1724326370806289</v>
+        <v>0.1905054117451622</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4836483592186444</v>
+        <v>-0.4667324216568878</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.471285557254269</v>
+        <v>-1.598738203504656</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.428488554931895</v>
+        <v>-0.4090371181690538</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.114388812859632</v>
+        <v>0.9250340549709519</v>
       </c>
       <c r="C13" t="n">
-        <v>1.80622143493866</v>
+        <v>2.383018844709872</v>
       </c>
       <c r="D13" t="n">
-        <v>1.120717434634192</v>
+        <v>0.9392855411109728</v>
       </c>
     </row>
   </sheetData>
